--- a/results/tbl1_fmt.xlsx
+++ b/results/tbl1_fmt.xlsx
@@ -185,44 +185,44 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +507,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -519,133 +519,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="28.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <v>9875.9249999999993</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5">
-        <v>7807.8785298042285</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="B3" s="3">
+        <v>9872.3340000000007</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3">
+        <v>7804.5250998039255</v>
+      </c>
+      <c r="E3" s="4">
         <f>D3/B3</f>
-        <v>0.79059718758538866</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5">
-        <v>1395.7205934441836</v>
-      </c>
-      <c r="H3" s="6">
+        <v>0.79054508283491265</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3">
+        <v>1395.6962391961365</v>
+      </c>
+      <c r="H3" s="4">
         <f>G3/B3</f>
-        <v>0.14132555618275591</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5">
-        <f>B3-(D3+G3)</f>
-        <v>672.3258767515872</v>
-      </c>
-      <c r="K3" s="6">
+        <v>0.1413744955545605</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3">
+        <v>672.1126845770292</v>
+      </c>
+      <c r="K3" s="4">
         <f>J3/B3</f>
-        <v>6.8077256231855468E-2</v>
+        <v>6.8080423998725034E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>1003</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7">
-        <v>206</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="4"/>
+      <c r="D4" s="13">
+        <v>205.83887899780299</v>
+      </c>
+      <c r="E4" s="4">
         <f>D4/B4</f>
-        <v>0.20538384845463609</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7">
-        <v>730</v>
-      </c>
-      <c r="H4" s="6">
+        <v>0.2052232093696939</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="13">
+        <v>729.84044078445436</v>
+      </c>
+      <c r="H4" s="4">
         <f>G4/B4</f>
-        <v>0.7278165503489531</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5">
-        <f>B4-(D4+G4)</f>
-        <v>67</v>
-      </c>
-      <c r="K4" s="6">
+        <v>0.72765746837931644</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3">
+        <v>67.78367863464355</v>
+      </c>
+      <c r="K4" s="4">
         <f>J4/B4</f>
-        <v>6.6799601196410763E-2</v>
+        <v>6.758093582716207E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <f>B4/B3</f>
-        <v>0.10156010702794929</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8">
+        <v>0.10159704888428613</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
         <f>D4/D3</f>
-        <v>2.6383607174939639E-2</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8">
+        <v>2.6374299059269388E-2</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5">
         <f>G4/G3</f>
-        <v>0.52302731895543497</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8">
+        <v>0.52292212322991738</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5">
         <f>J4/J3</f>
-        <v>9.965405514914509E-2</v>
-      </c>
-      <c r="K5" s="13"/>
+        <v>0.1008516580479371</v>
+      </c>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="42.6" customHeight="1">
       <c r="A6" s="10" t="s">

--- a/results/tbl1_fmt.xlsx
+++ b/results/tbl1_fmt.xlsx
@@ -1,59 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\michigan_em\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\michigan_em\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9061263-A7A0-40BF-97A2-10F9D2EE00F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total Population (in thousdands)</t>
-  </si>
-  <si>
-    <t>Percent Affected</t>
-  </si>
-  <si>
-    <t>Table 1. Population of Michigan that faced Emergency Political Intervention between 2007-2013</t>
-  </si>
-  <si>
-    <r>
-      <t>Emergency Management (any during 2007-13)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min </t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Emergency Management</t>
+  </si>
+  <si>
+    <t>dependent variable</t>
+  </si>
+  <si>
+    <t>Fiscal Distress</t>
+  </si>
+  <si>
+    <t>Black Population</t>
+  </si>
+  <si>
+    <t>test variable</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Household Income</t>
+  </si>
+  <si>
+    <t>potential confounder</t>
+  </si>
+  <si>
+    <t>White Population</t>
+  </si>
+  <si>
+    <t>alternative test variable</t>
+  </si>
+  <si>
+    <t>"Fiscal Indicator Score"</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <r>
@@ -61,8 +107,8 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
       </rPr>
       <t>a</t>
     </r>
@@ -70,61 +116,115 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
       </rPr>
-      <t>Usually under an emergency manager, occassionally as a consent agreement where local authorities are forced to emergency manage. Of Michigan's 1,515 cities, townships and villages; 12 had emergency management during this period, some for several years, sometimes on and off across the years.</t>
+      <t>Allen Park, Benton Harbor, Detroit, Ecorse, Flint, Hamtramck, Highland Park, Inkster, Muskegon Heights, Pontiac, River Rouge and Three Oaks were under emergency management for some or all years during the period 2007-2013.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6,935 observations from 985 units  </t>
+    </r>
+  </si>
+  <si>
+    <t>natural log of median in k$</t>
+  </si>
+  <si>
+    <r>
+      <t>Receivership or consent agreement, municipality and/or school district = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>intervening variable</t>
+  </si>
+  <si>
+    <t>Table 1. Descriptive Statistics for All Variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <i/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,14 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,59 +263,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,170 +594,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="14" customWidth="1"/>
+    <col min="6" max="7" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>9872.3340000000007</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3">
-        <v>7804.5250998039255</v>
-      </c>
-      <c r="E3" s="4">
-        <f>D3/B3</f>
-        <v>0.79054508283491265</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3">
-        <v>1395.6962391961365</v>
-      </c>
-      <c r="H3" s="4">
-        <f>G3/B3</f>
-        <v>0.1413744955545605</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3">
-        <v>672.1126845770292</v>
-      </c>
-      <c r="K3" s="4">
-        <f>J3/B3</f>
-        <v>6.8080423998725034E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="31.2">
+    </row>
+    <row r="3" spans="1:7" ht="49.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6.633E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8.1178700000000006E-2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="13">
-        <v>205.83887899780299</v>
-      </c>
-      <c r="E4" s="4">
-        <f>D4/B4</f>
-        <v>0.2052232093696939</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="13">
-        <v>729.84044078445436</v>
-      </c>
-      <c r="H4" s="4">
-        <f>G4/B4</f>
-        <v>0.72765746837931644</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3">
-        <v>67.78367863464355</v>
-      </c>
-      <c r="K4" s="4">
-        <f>J4/B4</f>
-        <v>6.758093582716207E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.8" customHeight="1" thickBot="1">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4/B3</f>
-        <v>0.10159704888428613</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5">
-        <f>D4/D3</f>
-        <v>2.6374299059269388E-2</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5">
-        <f>G4/G3</f>
-        <v>0.52292212322991738</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5">
-        <f>J4/J3</f>
-        <v>0.1008516580479371</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="42.6" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.4180919999999999</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.334314</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3.6062630000000002</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9.8934809999999995</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3.885421</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.28662749999999998</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.8487969999999998</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.0426169999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11">
+        <v>91.783869999999993</v>
+      </c>
+      <c r="E7" s="11">
+        <v>11.36542</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
